--- a/ExcelAvanzado-Esumer/Caso práctico.xlsx
+++ b/ExcelAvanzado-Esumer/Caso práctico.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwin.gomez.IUESUMER\OneDrive\Bancolombia\2021\GRUPOS BANCOLOMBIA\POWER QUERY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cursos\EscuelaDeAnalistas\ExcelAvanzado-Esumer\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C49A868-F1C0-4F42-BCDC-BA2F4C0910C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATOS" sheetId="1" r:id="rId1"/>
-    <sheet name="FECHA" sheetId="2" r:id="rId2"/>
+    <sheet name="CALENDARIO" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DATOS!$B$1:$F$1</definedName>
@@ -117,7 +118,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -162,7 +163,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -177,21 +178,6 @@
         <color theme="4" tint="-0.249977111117893"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -284,45 +270,28 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,11 +606,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3440,485 +3409,677 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A131"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+      <c r="A2" s="6">
         <v>44378</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
-        <v>44379</v>
+      <c r="A3" s="10">
+        <v>44380</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
-        <v>44380</v>
+      <c r="A4" s="6">
+        <v>44382</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
-        <v>44381</v>
+      <c r="A5" s="10">
+        <v>44384</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
-        <v>44382</v>
+      <c r="A6" s="6">
+        <v>44386</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
-        <v>44383</v>
+      <c r="A7" s="10">
+        <v>44388</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
-        <v>44384</v>
+      <c r="A8" s="6">
+        <v>44390</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
-        <v>44385</v>
+      <c r="A9" s="10">
+        <v>44392</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
-        <v>44386</v>
+      <c r="A10" s="6">
+        <v>44394</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
-        <v>44387</v>
+      <c r="A11" s="10">
+        <v>44396</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
-        <v>44388</v>
+      <c r="A12" s="6">
+        <v>44398</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
-        <v>44389</v>
+      <c r="A13" s="10">
+        <v>44400</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
-        <v>44390</v>
+      <c r="A14" s="6">
+        <v>44402</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
-        <v>44391</v>
+      <c r="A15" s="10">
+        <v>44404</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
-        <v>44392</v>
+      <c r="A16" s="6">
+        <v>44406</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
-        <v>44393</v>
+      <c r="A17" s="10">
+        <v>44408</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
-        <v>44394</v>
+      <c r="A18" s="6">
+        <v>44410</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
-        <v>44395</v>
+      <c r="A19" s="10">
+        <v>44412</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
-        <v>44396</v>
+      <c r="A20" s="6">
+        <v>44414</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
-        <v>44397</v>
+      <c r="A21" s="10">
+        <v>44416</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
-        <v>44398</v>
+      <c r="A22" s="6">
+        <v>44418</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
-        <v>44399</v>
+      <c r="A23" s="10">
+        <v>44420</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
-        <v>44400</v>
+      <c r="A24" s="6">
+        <v>44422</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18">
-        <v>44401</v>
+      <c r="A25" s="10">
+        <v>44424</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
-        <v>44402</v>
+      <c r="A26" s="6">
+        <v>44426</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18">
-        <v>44403</v>
+      <c r="A27" s="10">
+        <v>44428</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
-        <v>44404</v>
+      <c r="A28" s="6">
+        <v>44430</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18">
-        <v>44405</v>
+      <c r="A29" s="10">
+        <v>44432</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17">
-        <v>44406</v>
+      <c r="A30" s="6">
+        <v>44434</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18">
-        <v>44407</v>
+      <c r="A31" s="10">
+        <v>44436</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17">
-        <v>44408</v>
+      <c r="A32" s="6">
+        <v>44438</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18">
-        <v>44409</v>
+      <c r="A33" s="10">
+        <v>44440</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17">
-        <v>44410</v>
+      <c r="A34" s="6">
+        <v>44442</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18">
-        <v>44411</v>
+      <c r="A35" s="10">
+        <v>44444</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17">
-        <v>44412</v>
+      <c r="A36" s="6">
+        <v>44446</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="18">
-        <v>44413</v>
+      <c r="A37" s="10">
+        <v>44448</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="17">
-        <v>44414</v>
+      <c r="A38" s="6">
+        <v>44450</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="18">
-        <v>44415</v>
+      <c r="A39" s="10">
+        <v>44452</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="17">
-        <v>44416</v>
+      <c r="A40" s="6">
+        <v>44454</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="18">
-        <v>44417</v>
+      <c r="A41" s="10">
+        <v>44456</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="17">
-        <v>44418</v>
+      <c r="A42" s="6">
+        <v>44458</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="18">
-        <v>44419</v>
+      <c r="A43" s="10">
+        <v>44460</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17">
-        <v>44420</v>
+      <c r="A44" s="6">
+        <v>44462</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="18">
-        <v>44421</v>
+      <c r="A45" s="10">
+        <v>44464</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="17">
-        <v>44422</v>
+      <c r="A46" s="6">
+        <v>44466</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="18">
-        <v>44423</v>
+      <c r="A47" s="10">
+        <v>44468</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="17">
-        <v>44424</v>
+      <c r="A48" s="6">
+        <v>44470</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="18">
-        <v>44425</v>
+      <c r="A49" s="10">
+        <v>44472</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="17">
-        <v>44426</v>
+      <c r="A50" s="6">
+        <v>44474</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="18">
-        <v>44427</v>
+      <c r="A51" s="10">
+        <v>44476</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="17">
-        <v>44428</v>
+      <c r="A52" s="6">
+        <v>44478</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="18">
-        <v>44429</v>
+      <c r="A53" s="10">
+        <v>44480</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="17">
-        <v>44430</v>
+      <c r="A54" s="6">
+        <v>44482</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="18">
-        <v>44431</v>
+      <c r="A55" s="10">
+        <v>44484</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="17">
-        <v>44432</v>
+      <c r="A56" s="6">
+        <v>44486</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="18">
-        <v>44433</v>
+      <c r="A57" s="10">
+        <v>44488</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="17">
-        <v>44434</v>
+      <c r="A58" s="6">
+        <v>44490</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="18">
-        <v>44435</v>
+      <c r="A59" s="10">
+        <v>44492</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="17">
-        <v>44436</v>
+      <c r="A60" s="6">
+        <v>44494</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="18">
-        <v>44437</v>
+      <c r="A61" s="10">
+        <v>44496</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="17">
-        <v>44438</v>
+      <c r="A62" s="6">
+        <v>44498</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="18">
-        <v>44439</v>
+      <c r="A63" s="10">
+        <v>44500</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="17">
-        <v>44440</v>
+      <c r="A64" s="6">
+        <v>44502</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="18">
-        <v>44441</v>
+      <c r="A65" s="10">
+        <v>44504</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="17">
-        <v>44442</v>
+      <c r="A66" s="6">
+        <v>44506</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="18">
-        <v>44443</v>
+      <c r="A67" s="10">
+        <v>44508</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="17">
-        <v>44444</v>
+      <c r="A68" s="6">
+        <v>44510</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="18">
-        <v>44445</v>
+      <c r="A69" s="10">
+        <v>44512</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="17">
-        <v>44446</v>
+      <c r="A70" s="6">
+        <v>44514</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="18">
-        <v>44447</v>
+      <c r="A71" s="10">
+        <v>44516</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="17">
-        <v>44448</v>
+      <c r="A72" s="6">
+        <v>44518</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="18">
-        <v>44449</v>
+      <c r="A73" s="10">
+        <v>44520</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="17">
-        <v>44450</v>
+      <c r="A74" s="6">
+        <v>44522</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="18">
-        <v>44451</v>
+      <c r="A75" s="10">
+        <v>44524</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="17">
-        <v>44452</v>
+      <c r="A76" s="6">
+        <v>44526</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="18">
-        <v>44453</v>
+      <c r="A77" s="10">
+        <v>44528</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="17">
-        <v>44454</v>
+      <c r="A78" s="6">
+        <v>44530</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="18">
-        <v>44455</v>
+      <c r="A79" s="10">
+        <v>44532</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="17">
-        <v>44456</v>
+      <c r="A80" s="6">
+        <v>44534</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="18">
-        <v>44457</v>
+      <c r="A81" s="10">
+        <v>44536</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="17">
-        <v>44458</v>
+      <c r="A82" s="6">
+        <v>44538</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="18">
-        <v>44459</v>
+      <c r="A83" s="10">
+        <v>44540</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="17">
-        <v>44460</v>
+      <c r="A84" s="6">
+        <v>44542</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="18">
-        <v>44461</v>
+      <c r="A85" s="10">
+        <v>44544</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="17">
-        <v>44462</v>
+      <c r="A86" s="6">
+        <v>44546</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="18">
-        <v>44463</v>
+      <c r="A87" s="10">
+        <v>44548</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="17">
-        <v>44464</v>
+      <c r="A88" s="6">
+        <v>44550</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="18">
-        <v>44465</v>
+      <c r="A89" s="10">
+        <v>44552</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="17">
-        <v>44466</v>
+      <c r="A90" s="6">
+        <v>44554</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="18">
-        <v>44467</v>
+      <c r="A91" s="10">
+        <v>44556</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="17">
-        <v>44468</v>
+      <c r="A92" s="6">
+        <v>44558</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="19">
-        <v>44469</v>
+      <c r="A93" s="10">
+        <v>44560</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="6">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="10">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="6">
+        <v>44566</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="10">
+        <v>44568</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="6">
+        <v>44570</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="10">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="6">
+        <v>44574</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="10">
+        <v>44576</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="6">
+        <v>44578</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="10">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="6">
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="10">
+        <v>44584</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="6">
+        <v>44586</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="10">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="6">
+        <v>44590</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="10">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="6">
+        <v>44594</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="10">
+        <v>44596</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="6">
+        <v>44598</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="10">
+        <v>44600</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="6">
+        <v>44602</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="10">
+        <v>44604</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="6">
+        <v>44606</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="10">
+        <v>44608</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="6">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="10">
+        <v>44612</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="6">
+        <v>44614</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="10">
+        <v>44616</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="6">
+        <v>44618</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="10">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="6">
+        <v>44622</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="10">
+        <v>44624</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="6">
+        <v>44626</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="10">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="6">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="10">
+        <v>44632</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="6">
+        <v>44634</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="14">
+        <v>44636</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>